--- a/Code/Results/Cases/Case_2_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002829741190991</v>
+        <v>1.029988721144156</v>
       </c>
       <c r="D2">
-        <v>1.024778001628686</v>
+        <v>1.038332840094145</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.029150137600929</v>
+        <v>1.047191129705649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05026350094412</v>
+        <v>1.036166910946001</v>
       </c>
       <c r="J2">
-        <v>1.024926143351303</v>
+        <v>1.03513244992056</v>
       </c>
       <c r="K2">
-        <v>1.035902603725124</v>
+        <v>1.041121173131158</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.040217769922383</v>
+        <v>1.049954457957876</v>
       </c>
       <c r="N2">
-        <v>1.026381656035533</v>
+        <v>1.036602456730799</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007220288310095</v>
+        <v>1.030905256063485</v>
       </c>
       <c r="D3">
-        <v>1.028051241452263</v>
+        <v>1.039025691889827</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.032969511705705</v>
+        <v>1.048023638693337</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051518390257481</v>
+        <v>1.036342632168735</v>
       </c>
       <c r="J3">
-        <v>1.027516037707359</v>
+        <v>1.035690417612634</v>
       </c>
       <c r="K3">
-        <v>1.038337354093039</v>
+        <v>1.041624326250193</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.043197229221791</v>
+        <v>1.050598707605567</v>
       </c>
       <c r="N3">
-        <v>1.02897522833864</v>
+        <v>1.037161216800995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010001823949119</v>
+        <v>1.031498474504504</v>
       </c>
       <c r="D4">
-        <v>1.030125556950335</v>
+        <v>1.039473835763006</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.035392074178414</v>
+        <v>1.04856246449611</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052299230166543</v>
+        <v>1.036454592726619</v>
       </c>
       <c r="J4">
-        <v>1.029153096808427</v>
+        <v>1.036051001899185</v>
       </c>
       <c r="K4">
-        <v>1.039873496285676</v>
+        <v>1.041949047113049</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.045081318680489</v>
+        <v>1.051015069690849</v>
       </c>
       <c r="N4">
-        <v>1.030614612251405</v>
+        <v>1.037522313158593</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011157437309468</v>
+        <v>1.031747900562054</v>
       </c>
       <c r="D5">
-        <v>1.030987442616413</v>
+        <v>1.039662191422356</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.036399188098491</v>
+        <v>1.048789018031708</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052620183266031</v>
+        <v>1.036501242954986</v>
       </c>
       <c r="J5">
-        <v>1.029832302416123</v>
+        <v>1.036202480831161</v>
       </c>
       <c r="K5">
-        <v>1.040510129426907</v>
+        <v>1.042085354432032</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.045863192724667</v>
+        <v>1.051189984741067</v>
       </c>
       <c r="N5">
-        <v>1.03129478240897</v>
+        <v>1.037674007208027</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011350677595859</v>
+        <v>1.031789782435121</v>
       </c>
       <c r="D6">
-        <v>1.031131569956166</v>
+        <v>1.03969381454054</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.036567632574431</v>
+        <v>1.048827059148673</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052673648058012</v>
+        <v>1.036509051200429</v>
       </c>
       <c r="J6">
-        <v>1.029945823008251</v>
+        <v>1.036227908288812</v>
       </c>
       <c r="K6">
-        <v>1.040616492716595</v>
+        <v>1.042108228956143</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.045993883112259</v>
+        <v>1.051219346462009</v>
       </c>
       <c r="N6">
-        <v>1.03140846421336</v>
+        <v>1.037699470775584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010017318690204</v>
+        <v>1.031501807203535</v>
       </c>
       <c r="D7">
-        <v>1.030137113026148</v>
+        <v>1.039476352755451</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.035405575345872</v>
+        <v>1.048565491595078</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052303547298822</v>
+        <v>1.036455217712625</v>
       </c>
       <c r="J7">
-        <v>1.029162207459104</v>
+        <v>1.036053026404369</v>
       </c>
       <c r="K7">
-        <v>1.039882038684872</v>
+        <v>1.041950869266397</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.04509180580888</v>
+        <v>1.05101740740157</v>
       </c>
       <c r="N7">
-        <v>1.030623735840251</v>
+        <v>1.037524340538807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004326155687402</v>
+        <v>1.030298434843291</v>
       </c>
       <c r="D8">
-        <v>1.025893441643117</v>
+        <v>1.038567028460723</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.030451244365897</v>
+        <v>1.047472450734564</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050694139117389</v>
+        <v>1.036226657166658</v>
       </c>
       <c r="J8">
-        <v>1.02580960533789</v>
+        <v>1.035321111955233</v>
       </c>
       <c r="K8">
-        <v>1.036733730812892</v>
+        <v>1.041291391977562</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.041233946707577</v>
+        <v>1.050172290037803</v>
       </c>
       <c r="N8">
-        <v>1.027266372639476</v>
+        <v>1.0367913866872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9938191926550108</v>
+        <v>1.028179203465877</v>
       </c>
       <c r="D9">
-        <v>1.01806655492023</v>
+        <v>1.036963389410231</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.021330107468906</v>
+        <v>1.045547490643674</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047612501431372</v>
+        <v>1.035810589396043</v>
       </c>
       <c r="J9">
-        <v>1.019592115119674</v>
+        <v>1.034027921575584</v>
       </c>
       <c r="K9">
-        <v>1.030873160864849</v>
+        <v>1.040122827687241</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.034086344566549</v>
+        <v>1.048679234631487</v>
       </c>
       <c r="N9">
-        <v>1.021040052871994</v>
+        <v>1.035496359828881</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9864583990879817</v>
+        <v>1.026767293344355</v>
       </c>
       <c r="D10">
-        <v>1.012592608331648</v>
+        <v>1.035893515669231</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.014961217624723</v>
+        <v>1.044265028040286</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045382418426132</v>
+        <v>1.035524302561888</v>
       </c>
       <c r="J10">
-        <v>1.015219782860705</v>
+        <v>1.033163525586058</v>
       </c>
       <c r="K10">
-        <v>1.026738161646935</v>
+        <v>1.03933949474273</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.029065496644891</v>
+        <v>1.04768135424016</v>
       </c>
       <c r="N10">
-        <v>1.016661511399704</v>
+        <v>1.034630736297903</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9831782522761893</v>
+        <v>1.026156148939328</v>
       </c>
       <c r="D11">
-        <v>1.01015644025324</v>
+        <v>1.035430081641368</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.012128977077143</v>
+        <v>1.043709926973934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044372555226851</v>
+        <v>1.035398233277339</v>
       </c>
       <c r="J11">
-        <v>1.013267975314758</v>
+        <v>1.032788706627772</v>
       </c>
       <c r="K11">
-        <v>1.024889329462378</v>
+        <v>1.038999299265576</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.026825727054496</v>
+        <v>1.04724868191338</v>
       </c>
       <c r="N11">
-        <v>1.014706932063167</v>
+        <v>1.034255385053704</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9819451351120165</v>
+        <v>1.025929176969178</v>
       </c>
       <c r="D12">
-        <v>1.009241162001214</v>
+        <v>1.035257917266861</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.011065208619266</v>
+        <v>1.043503771335023</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043990568032234</v>
+        <v>1.035351089931952</v>
       </c>
       <c r="J12">
-        <v>1.012533764187785</v>
+        <v>1.032649403525911</v>
       </c>
       <c r="K12">
-        <v>1.024193431957885</v>
+        <v>1.038872785280943</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.025983443369641</v>
+        <v>1.047087881743869</v>
       </c>
       <c r="N12">
-        <v>1.013971678272177</v>
+        <v>1.03411588412546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9822103222384838</v>
+        <v>1.025977861661548</v>
       </c>
       <c r="D13">
-        <v>1.009437969842569</v>
+        <v>1.035294848188036</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.011293931607294</v>
+        <v>1.043547990874203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044072820829559</v>
+        <v>1.035361216610217</v>
       </c>
       <c r="J13">
-        <v>1.012691679475624</v>
+        <v>1.0326792880582</v>
       </c>
       <c r="K13">
-        <v>1.024343125395956</v>
+        <v>1.038899929741463</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.026164591451812</v>
+        <v>1.047122377815705</v>
       </c>
       <c r="N13">
-        <v>1.014129817817839</v>
+        <v>1.034145811097213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.983076627458158</v>
+        <v>1.026137386660989</v>
       </c>
       <c r="D14">
-        <v>1.01008099761024</v>
+        <v>1.035415850968709</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.012041288677102</v>
+        <v>1.043692885390127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044341121794061</v>
+        <v>1.035394342827914</v>
       </c>
       <c r="J14">
-        <v>1.013207475901381</v>
+        <v>1.032777193388952</v>
       </c>
       <c r="K14">
-        <v>1.024831995561879</v>
+        <v>1.038988844638738</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.026756317203397</v>
+        <v>1.04723539187649</v>
       </c>
       <c r="N14">
-        <v>1.014646346733683</v>
+        <v>1.034243855464764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9836084115467445</v>
+        <v>1.026235679847179</v>
       </c>
       <c r="D15">
-        <v>1.010475798464212</v>
+        <v>1.035490401592988</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.01250018588913</v>
+        <v>1.04378216418251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044505512024133</v>
+        <v>1.035414711184232</v>
       </c>
       <c r="J15">
-        <v>1.013524039762522</v>
+        <v>1.03283750570051</v>
       </c>
       <c r="K15">
-        <v>1.025131978764092</v>
+        <v>1.039043608165672</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.027119515338378</v>
+        <v>1.047305012157872</v>
       </c>
       <c r="N15">
-        <v>1.014963360151817</v>
+        <v>1.034304253426723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.986674070276215</v>
+        <v>1.026807857741566</v>
       </c>
       <c r="D16">
-        <v>1.012752860313787</v>
+        <v>1.035924268766631</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.01514756817116</v>
+        <v>1.044301872901107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045448488305821</v>
+        <v>1.035532625069344</v>
       </c>
       <c r="J16">
-        <v>1.01534804851548</v>
+        <v>1.033188390004396</v>
       </c>
       <c r="K16">
-        <v>1.026859600291017</v>
+        <v>1.039362051268653</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.029212719680691</v>
+        <v>1.047710057091407</v>
       </c>
       <c r="N16">
-        <v>1.016789959206422</v>
+        <v>1.034655636026567</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9885716843029121</v>
+        <v>1.027166829902842</v>
       </c>
       <c r="D17">
-        <v>1.014163229348902</v>
+        <v>1.036196377251789</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.0167878799195</v>
+        <v>1.044627930729912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046027991884114</v>
+        <v>1.035606026196165</v>
       </c>
       <c r="J17">
-        <v>1.016476232192945</v>
+        <v>1.033408349285079</v>
       </c>
       <c r="K17">
-        <v>1.027927400928631</v>
+        <v>1.03956153333368</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.030507823191486</v>
+        <v>1.047963975744955</v>
       </c>
       <c r="N17">
-        <v>1.017919745034112</v>
+        <v>1.034875907674658</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9896696243119953</v>
+        <v>1.027376233648799</v>
       </c>
       <c r="D18">
-        <v>1.014979547771617</v>
+        <v>1.036355076870447</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.017737500582736</v>
+        <v>1.044818135263669</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046361756411506</v>
+        <v>1.035648636665165</v>
       </c>
       <c r="J18">
-        <v>1.017128662801943</v>
+        <v>1.033536596631952</v>
       </c>
       <c r="K18">
-        <v>1.02854462892497</v>
+        <v>1.039677790600802</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.031256927953454</v>
+        <v>1.048112025812608</v>
       </c>
       <c r="N18">
-        <v>1.01857310216941</v>
+        <v>1.035004337147474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990042505377538</v>
+        <v>1.027447638509276</v>
       </c>
       <c r="D19">
-        <v>1.015256832145322</v>
+        <v>1.036409186469865</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.018060101094268</v>
+        <v>1.044882993528749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046474847471571</v>
+        <v>1.035663131252583</v>
       </c>
       <c r="J19">
-        <v>1.017350183986255</v>
+        <v>1.033580316953234</v>
       </c>
       <c r="K19">
-        <v>1.028754148994996</v>
+        <v>1.039717414797072</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.031511297009268</v>
+        <v>1.048162497456885</v>
       </c>
       <c r="N19">
-        <v>1.018794937939212</v>
+        <v>1.035048119556627</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9883690148810195</v>
+        <v>1.027128313371382</v>
       </c>
       <c r="D20">
-        <v>1.014012567750222</v>
+        <v>1.036167184298977</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.01661263300555</v>
+        <v>1.044592945677389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045966257890177</v>
+        <v>1.035598171959419</v>
       </c>
       <c r="J20">
-        <v>1.016355773026571</v>
+        <v>1.033384755022881</v>
       </c>
       <c r="K20">
-        <v>1.027813418222662</v>
+        <v>1.039540140846832</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.030369526460404</v>
+        <v>1.047936738499668</v>
       </c>
       <c r="N20">
-        <v>1.017799114801905</v>
+        <v>1.034852279905902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9828219351047267</v>
+        <v>1.026090409571214</v>
       </c>
       <c r="D21">
-        <v>1.009891932385413</v>
+        <v>1.035380219326113</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.011821539644589</v>
+        <v>1.043650216626638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044262305713342</v>
+        <v>1.035384596689093</v>
       </c>
       <c r="J21">
-        <v>1.013055844870577</v>
+        <v>1.032748364872895</v>
       </c>
       <c r="K21">
-        <v>1.024688291602145</v>
+        <v>1.038962665556315</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.026582357839318</v>
+        <v>1.047202114427383</v>
       </c>
       <c r="N21">
-        <v>1.014494500369423</v>
+        <v>1.034214986008907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9792486509471265</v>
+        <v>1.025438037006429</v>
       </c>
       <c r="D22">
-        <v>1.007240828687396</v>
+        <v>1.034885283086771</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.008740911941564</v>
+        <v>1.043057680671246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043151034690352</v>
+        <v>1.035248487811321</v>
       </c>
       <c r="J22">
-        <v>1.010927455565866</v>
+        <v>1.032347786535589</v>
       </c>
       <c r="K22">
-        <v>1.022670195245459</v>
+        <v>1.038598715223081</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.024141175898875</v>
+        <v>1.046739727839853</v>
       </c>
       <c r="N22">
-        <v>1.01236308850777</v>
+        <v>1.033813838804415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811513039888512</v>
+        <v>1.025783852900038</v>
       </c>
       <c r="D23">
-        <v>1.008652111272172</v>
+        <v>1.035147670953679</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.010380679967874</v>
+        <v>1.043371776186842</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043744008139625</v>
+        <v>1.03532081452442</v>
       </c>
       <c r="J23">
-        <v>1.012060984902479</v>
+        <v>1.032560183467543</v>
       </c>
       <c r="K23">
-        <v>1.023745207819036</v>
+        <v>1.038791734166069</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.025441146114696</v>
+        <v>1.046984894622815</v>
       </c>
       <c r="N23">
-        <v>1.013498227586058</v>
+        <v>1.034026537364375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9884606199353313</v>
+        <v>1.027145717268069</v>
       </c>
       <c r="D24">
-        <v>1.014080664756355</v>
+        <v>1.03618037538936</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.016691841583512</v>
+        <v>1.044608753853447</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045994165941625</v>
+        <v>1.035601721578722</v>
       </c>
       <c r="J24">
-        <v>1.016410220674809</v>
+        <v>1.033395416412572</v>
       </c>
       <c r="K24">
-        <v>1.027864939384635</v>
+        <v>1.039549807491371</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.030432036257921</v>
+        <v>1.047949046012733</v>
       </c>
       <c r="N24">
-        <v>1.017853639772049</v>
+        <v>1.034862956435988</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965956006240624</v>
+        <v>1.028726919472328</v>
       </c>
       <c r="D25">
-        <v>1.020133468553333</v>
+        <v>1.037378112666169</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.023736975829793</v>
+        <v>1.046044996949349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048439327360913</v>
+        <v>1.035919726235269</v>
       </c>
       <c r="J25">
-        <v>1.021238082086858</v>
+        <v>1.034362646576704</v>
       </c>
       <c r="K25">
-        <v>1.03242707599742</v>
+        <v>1.04042569063546</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.035977651204304</v>
+        <v>1.049065673414971</v>
       </c>
       <c r="N25">
-        <v>1.022688357301067</v>
+        <v>1.035831560177897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029988721144156</v>
+        <v>1.002829741190992</v>
       </c>
       <c r="D2">
-        <v>1.038332840094145</v>
+        <v>1.024778001628687</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.047191129705649</v>
+        <v>1.02915013760093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036166910946001</v>
+        <v>1.050263500944121</v>
       </c>
       <c r="J2">
-        <v>1.03513244992056</v>
+        <v>1.024926143351304</v>
       </c>
       <c r="K2">
-        <v>1.041121173131158</v>
+        <v>1.035902603725125</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.049954457957876</v>
+        <v>1.040217769922384</v>
       </c>
       <c r="N2">
-        <v>1.036602456730799</v>
+        <v>1.026381656035534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030905256063485</v>
+        <v>1.007220288310095</v>
       </c>
       <c r="D3">
-        <v>1.039025691889827</v>
+        <v>1.028051241452264</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.048023638693337</v>
+        <v>1.032969511705705</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036342632168735</v>
+        <v>1.051518390257481</v>
       </c>
       <c r="J3">
-        <v>1.035690417612634</v>
+        <v>1.027516037707359</v>
       </c>
       <c r="K3">
-        <v>1.041624326250193</v>
+        <v>1.038337354093039</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.050598707605567</v>
+        <v>1.043197229221791</v>
       </c>
       <c r="N3">
-        <v>1.037161216800995</v>
+        <v>1.02897522833864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031498474504504</v>
+        <v>1.010001823949119</v>
       </c>
       <c r="D4">
-        <v>1.039473835763006</v>
+        <v>1.030125556950335</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.04856246449611</v>
+        <v>1.035392074178414</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036454592726619</v>
+        <v>1.052299230166543</v>
       </c>
       <c r="J4">
-        <v>1.036051001899185</v>
+        <v>1.029153096808427</v>
       </c>
       <c r="K4">
-        <v>1.041949047113049</v>
+        <v>1.039873496285676</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.051015069690849</v>
+        <v>1.045081318680489</v>
       </c>
       <c r="N4">
-        <v>1.037522313158593</v>
+        <v>1.030614612251405</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031747900562054</v>
+        <v>1.011157437309469</v>
       </c>
       <c r="D5">
-        <v>1.039662191422356</v>
+        <v>1.030987442616413</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.048789018031708</v>
+        <v>1.036399188098491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036501242954986</v>
+        <v>1.052620183266031</v>
       </c>
       <c r="J5">
-        <v>1.036202480831161</v>
+        <v>1.029832302416124</v>
       </c>
       <c r="K5">
-        <v>1.042085354432032</v>
+        <v>1.040510129426908</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.051189984741067</v>
+        <v>1.045863192724667</v>
       </c>
       <c r="N5">
-        <v>1.037674007208027</v>
+        <v>1.03129478240897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031789782435121</v>
+        <v>1.011350677595858</v>
       </c>
       <c r="D6">
-        <v>1.03969381454054</v>
+        <v>1.031131569956166</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.048827059148673</v>
+        <v>1.03656763257443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036509051200429</v>
+        <v>1.052673648058012</v>
       </c>
       <c r="J6">
-        <v>1.036227908288812</v>
+        <v>1.029945823008251</v>
       </c>
       <c r="K6">
-        <v>1.042108228956143</v>
+        <v>1.040616492716594</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.051219346462009</v>
+        <v>1.045993883112258</v>
       </c>
       <c r="N6">
-        <v>1.037699470775584</v>
+        <v>1.031408464213359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031501807203535</v>
+        <v>1.010017318690204</v>
       </c>
       <c r="D7">
-        <v>1.039476352755451</v>
+        <v>1.030137113026148</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.048565491595078</v>
+        <v>1.035405575345872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036455217712625</v>
+        <v>1.052303547298822</v>
       </c>
       <c r="J7">
-        <v>1.036053026404369</v>
+        <v>1.029162207459104</v>
       </c>
       <c r="K7">
-        <v>1.041950869266397</v>
+        <v>1.039882038684872</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.05101740740157</v>
+        <v>1.04509180580888</v>
       </c>
       <c r="N7">
-        <v>1.037524340538807</v>
+        <v>1.030623735840251</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030298434843291</v>
+        <v>1.004326155687402</v>
       </c>
       <c r="D8">
-        <v>1.038567028460723</v>
+        <v>1.025893441643117</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.047472450734564</v>
+        <v>1.030451244365897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036226657166658</v>
+        <v>1.050694139117389</v>
       </c>
       <c r="J8">
-        <v>1.035321111955233</v>
+        <v>1.02580960533789</v>
       </c>
       <c r="K8">
-        <v>1.041291391977562</v>
+        <v>1.036733730812892</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.050172290037803</v>
+        <v>1.041233946707577</v>
       </c>
       <c r="N8">
-        <v>1.0367913866872</v>
+        <v>1.027266372639476</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028179203465877</v>
+        <v>0.9938191926550126</v>
       </c>
       <c r="D9">
-        <v>1.036963389410231</v>
+        <v>1.018066554920231</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.045547490643674</v>
+        <v>1.021330107468907</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035810589396043</v>
+        <v>1.047612501431373</v>
       </c>
       <c r="J9">
-        <v>1.034027921575584</v>
+        <v>1.019592115119676</v>
       </c>
       <c r="K9">
-        <v>1.040122827687241</v>
+        <v>1.030873160864851</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.048679234631487</v>
+        <v>1.03408634456655</v>
       </c>
       <c r="N9">
-        <v>1.035496359828881</v>
+        <v>1.021040052871996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026767293344355</v>
+        <v>0.9864583990879824</v>
       </c>
       <c r="D10">
-        <v>1.035893515669231</v>
+        <v>1.012592608331649</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.044265028040286</v>
+        <v>1.014961217624724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035524302561888</v>
+        <v>1.045382418426132</v>
       </c>
       <c r="J10">
-        <v>1.033163525586058</v>
+        <v>1.015219782860705</v>
       </c>
       <c r="K10">
-        <v>1.03933949474273</v>
+        <v>1.026738161646936</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.04768135424016</v>
+        <v>1.029065496644892</v>
       </c>
       <c r="N10">
-        <v>1.034630736297903</v>
+        <v>1.016661511399704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026156148939328</v>
+        <v>0.9831782522761887</v>
       </c>
       <c r="D11">
-        <v>1.035430081641368</v>
+        <v>1.010156440253239</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.043709926973934</v>
+        <v>1.012128977077142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035398233277339</v>
+        <v>1.044372555226851</v>
       </c>
       <c r="J11">
-        <v>1.032788706627772</v>
+        <v>1.013267975314757</v>
       </c>
       <c r="K11">
-        <v>1.038999299265576</v>
+        <v>1.024889329462377</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.04724868191338</v>
+        <v>1.026825727054495</v>
       </c>
       <c r="N11">
-        <v>1.034255385053704</v>
+        <v>1.014706932063166</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025929176969178</v>
+        <v>0.9819451351120164</v>
       </c>
       <c r="D12">
-        <v>1.035257917266861</v>
+        <v>1.009241162001214</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.043503771335023</v>
+        <v>1.011065208619266</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035351089931952</v>
+        <v>1.043990568032234</v>
       </c>
       <c r="J12">
-        <v>1.032649403525911</v>
+        <v>1.012533764187785</v>
       </c>
       <c r="K12">
-        <v>1.038872785280943</v>
+        <v>1.024193431957885</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.047087881743869</v>
+        <v>1.025983443369641</v>
       </c>
       <c r="N12">
-        <v>1.03411588412546</v>
+        <v>1.013971678272177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025977861661548</v>
+        <v>0.9822103222384839</v>
       </c>
       <c r="D13">
-        <v>1.035294848188036</v>
+        <v>1.009437969842569</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.043547990874203</v>
+        <v>1.011293931607293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035361216610217</v>
+        <v>1.044072820829559</v>
       </c>
       <c r="J13">
-        <v>1.0326792880582</v>
+        <v>1.012691679475624</v>
       </c>
       <c r="K13">
-        <v>1.038899929741463</v>
+        <v>1.024343125395956</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.047122377815705</v>
+        <v>1.026164591451812</v>
       </c>
       <c r="N13">
-        <v>1.034145811097213</v>
+        <v>1.014129817817839</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026137386660989</v>
+        <v>0.9830766274581579</v>
       </c>
       <c r="D14">
-        <v>1.035415850968709</v>
+        <v>1.010080997610239</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.043692885390127</v>
+        <v>1.012041288677101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035394342827914</v>
+        <v>1.044341121794061</v>
       </c>
       <c r="J14">
-        <v>1.032777193388952</v>
+        <v>1.013207475901381</v>
       </c>
       <c r="K14">
-        <v>1.038988844638738</v>
+        <v>1.024831995561878</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.04723539187649</v>
+        <v>1.026756317203396</v>
       </c>
       <c r="N14">
-        <v>1.034243855464764</v>
+        <v>1.014646346733683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026235679847179</v>
+        <v>0.9836084115467445</v>
       </c>
       <c r="D15">
-        <v>1.035490401592988</v>
+        <v>1.010475798464212</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.04378216418251</v>
+        <v>1.01250018588913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035414711184232</v>
+        <v>1.044505512024133</v>
       </c>
       <c r="J15">
-        <v>1.03283750570051</v>
+        <v>1.013524039762522</v>
       </c>
       <c r="K15">
-        <v>1.039043608165672</v>
+        <v>1.025131978764092</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.047305012157872</v>
+        <v>1.027119515338378</v>
       </c>
       <c r="N15">
-        <v>1.034304253426723</v>
+        <v>1.014963360151817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026807857741566</v>
+        <v>0.9866740702762146</v>
       </c>
       <c r="D16">
-        <v>1.035924268766631</v>
+        <v>1.012752860313787</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.044301872901107</v>
+        <v>1.01514756817116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035532625069344</v>
+        <v>1.045448488305821</v>
       </c>
       <c r="J16">
-        <v>1.033188390004396</v>
+        <v>1.01534804851548</v>
       </c>
       <c r="K16">
-        <v>1.039362051268653</v>
+        <v>1.026859600291016</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.047710057091407</v>
+        <v>1.029212719680691</v>
       </c>
       <c r="N16">
-        <v>1.034655636026567</v>
+        <v>1.016789959206421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027166829902842</v>
+        <v>0.9885716843029123</v>
       </c>
       <c r="D17">
-        <v>1.036196377251789</v>
+        <v>1.014163229348903</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.044627930729912</v>
+        <v>1.0167878799195</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035606026196165</v>
+        <v>1.046027991884114</v>
       </c>
       <c r="J17">
-        <v>1.033408349285079</v>
+        <v>1.016476232192945</v>
       </c>
       <c r="K17">
-        <v>1.03956153333368</v>
+        <v>1.027927400928631</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.047963975744955</v>
+        <v>1.030507823191486</v>
       </c>
       <c r="N17">
-        <v>1.034875907674658</v>
+        <v>1.017919745034112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027376233648799</v>
+        <v>0.9896696243119963</v>
       </c>
       <c r="D18">
-        <v>1.036355076870447</v>
+        <v>1.014979547771618</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.044818135263669</v>
+        <v>1.017737500582737</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035648636665165</v>
+        <v>1.046361756411507</v>
       </c>
       <c r="J18">
-        <v>1.033536596631952</v>
+        <v>1.017128662801944</v>
       </c>
       <c r="K18">
-        <v>1.039677790600802</v>
+        <v>1.028544628924971</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.048112025812608</v>
+        <v>1.031256927953455</v>
       </c>
       <c r="N18">
-        <v>1.035004337147474</v>
+        <v>1.018573102169411</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027447638509276</v>
+        <v>0.9900425053775372</v>
       </c>
       <c r="D19">
-        <v>1.036409186469865</v>
+        <v>1.015256832145322</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.044882993528749</v>
+        <v>1.018060101094267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035663131252583</v>
+        <v>1.046474847471571</v>
       </c>
       <c r="J19">
-        <v>1.033580316953234</v>
+        <v>1.017350183986254</v>
       </c>
       <c r="K19">
-        <v>1.039717414797072</v>
+        <v>1.028754148994995</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.048162497456885</v>
+        <v>1.031511297009267</v>
       </c>
       <c r="N19">
-        <v>1.035048119556627</v>
+        <v>1.018794937939212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027128313371382</v>
+        <v>0.988369014881019</v>
       </c>
       <c r="D20">
-        <v>1.036167184298977</v>
+        <v>1.014012567750222</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.044592945677389</v>
+        <v>1.01661263300555</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035598171959419</v>
+        <v>1.045966257890177</v>
       </c>
       <c r="J20">
-        <v>1.033384755022881</v>
+        <v>1.016355773026571</v>
       </c>
       <c r="K20">
-        <v>1.039540140846832</v>
+        <v>1.027813418222662</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.047936738499668</v>
+        <v>1.030369526460403</v>
       </c>
       <c r="N20">
-        <v>1.034852279905902</v>
+        <v>1.017799114801905</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026090409571214</v>
+        <v>0.9828219351047273</v>
       </c>
       <c r="D21">
-        <v>1.035380219326113</v>
+        <v>1.009891932385413</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.043650216626638</v>
+        <v>1.01182153964459</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035384596689093</v>
+        <v>1.044262305713342</v>
       </c>
       <c r="J21">
-        <v>1.032748364872895</v>
+        <v>1.013055844870577</v>
       </c>
       <c r="K21">
-        <v>1.038962665556315</v>
+        <v>1.024688291602146</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.047202114427383</v>
+        <v>1.026582357839318</v>
       </c>
       <c r="N21">
-        <v>1.034214986008907</v>
+        <v>1.014494500369423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025438037006429</v>
+        <v>0.9792486509471263</v>
       </c>
       <c r="D22">
-        <v>1.034885283086771</v>
+        <v>1.007240828687396</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.043057680671246</v>
+        <v>1.008740911941564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035248487811321</v>
+        <v>1.043151034690352</v>
       </c>
       <c r="J22">
-        <v>1.032347786535589</v>
+        <v>1.010927455565866</v>
       </c>
       <c r="K22">
-        <v>1.038598715223081</v>
+        <v>1.022670195245459</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.046739727839853</v>
+        <v>1.024141175898876</v>
       </c>
       <c r="N22">
-        <v>1.033813838804415</v>
+        <v>1.012363088507769</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025783852900038</v>
+        <v>0.9811513039888499</v>
       </c>
       <c r="D23">
-        <v>1.035147670953679</v>
+        <v>1.008652111272171</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.043371776186842</v>
+        <v>1.010380679967872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03532081452442</v>
+        <v>1.043744008139624</v>
       </c>
       <c r="J23">
-        <v>1.032560183467543</v>
+        <v>1.012060984902478</v>
       </c>
       <c r="K23">
-        <v>1.038791734166069</v>
+        <v>1.023745207819034</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.046984894622815</v>
+        <v>1.025441146114694</v>
       </c>
       <c r="N23">
-        <v>1.034026537364375</v>
+        <v>1.013498227586057</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027145717268069</v>
+        <v>0.9884606199353319</v>
       </c>
       <c r="D24">
-        <v>1.03618037538936</v>
+        <v>1.014080664756356</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.044608753853447</v>
+        <v>1.016691841583513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035601721578722</v>
+        <v>1.045994165941625</v>
       </c>
       <c r="J24">
-        <v>1.033395416412572</v>
+        <v>1.01641022067481</v>
       </c>
       <c r="K24">
-        <v>1.039549807491371</v>
+        <v>1.027864939384635</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.047949046012733</v>
+        <v>1.030432036257922</v>
       </c>
       <c r="N24">
-        <v>1.034862956435988</v>
+        <v>1.017853639772049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028726919472328</v>
+        <v>0.9965956006240634</v>
       </c>
       <c r="D25">
-        <v>1.037378112666169</v>
+        <v>1.020133468553333</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.046044996949349</v>
+        <v>1.023736975829794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035919726235269</v>
+        <v>1.048439327360913</v>
       </c>
       <c r="J25">
-        <v>1.034362646576704</v>
+        <v>1.021238082086859</v>
       </c>
       <c r="K25">
-        <v>1.04042569063546</v>
+        <v>1.03242707599742</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.049065673414971</v>
+        <v>1.035977651204306</v>
       </c>
       <c r="N25">
-        <v>1.035831560177897</v>
+        <v>1.022688357301067</v>
       </c>
     </row>
   </sheetData>
